--- a/DummyFileList.xlsx
+++ b/DummyFileList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oreo/Github/Whipping-selllog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0541D3CF-732F-4E4D-B95F-10E57CEE964A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0D900A-5F0C-144B-8C42-4C5D6B469169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{0C3D7F9C-DA6F-464E-9B14-0BA85C93B3E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -81,6 +81,36 @@
   </si>
   <si>
     <t>모모이멍청이</t>
+  </si>
+  <si>
+    <t>유우카한테 혼나는 키링</t>
+  </si>
+  <si>
+    <t>유우카한테 뚜들</t>
+  </si>
+  <si>
+    <t>모모이쨩키링</t>
+  </si>
+  <si>
+    <t>미도리키링</t>
+  </si>
+  <si>
+    <t>유즈 이마</t>
+  </si>
+  <si>
+    <t>틱택토용 펜</t>
+  </si>
+  <si>
+    <t>문구류</t>
+  </si>
+  <si>
+    <t>비싼 뱃지</t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>A4 용지 (노아가 사용함)</t>
   </si>
 </sst>
 </file>
@@ -472,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA121B38-4531-004B-90B2-1890D38AF728}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,6 +577,146 @@
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>2000000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>2000000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <v>2000000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>100000</v>
+      </c>
+      <c r="D7">
+        <v>2000000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>2000000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>2000000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>2000000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
